--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -1,41 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaojulia\Desktop\MóFome\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B1EE0-8CDB-4B38-8E17-09BF1BC7A280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Frequencia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Frequencia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>01/02/2024</t>
+  </si>
+  <si>
+    <t>sanduíche de presunto e mozzarela</t>
+  </si>
+  <si>
+    <t>Harry Edward Styles</t>
+  </si>
+  <si>
+    <t>12/01/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galinhada do zayn </t>
+  </si>
+  <si>
+    <t>Niall James Horan</t>
+  </si>
+  <si>
+    <t>23/07</t>
+  </si>
+  <si>
+    <t>feijao, arroz e galinhada do zayn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,82 +96,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,73 +401,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="32.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Almoço</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>01/02/2024</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>sanduíche de presunto e mozzarela</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Harry Edward Styles</t>
-        </is>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12/01/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">galinhada do zayn </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Niall James Horan</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -1,84 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaojulia\Desktop\MóFome\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B1EE0-8CDB-4B38-8E17-09BF1BC7A280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Frequencia" sheetId="1" r:id="rId1"/>
+    <sheet name="Frequencia" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Almoço</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>01/02/2024</t>
-  </si>
-  <si>
-    <t>sanduíche de presunto e mozzarela</t>
-  </si>
-  <si>
-    <t>Harry Edward Styles</t>
-  </si>
-  <si>
-    <t>12/01/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galinhada do zayn </t>
-  </si>
-  <si>
-    <t>Niall James Horan</t>
-  </si>
-  <si>
-    <t>23/07</t>
-  </si>
-  <si>
-    <t>feijao, arroz e galinhada do zayn</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,23 +54,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,62 +417,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="32.7109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Almoço</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sanduíche de presunto e mozzarela</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Harry Edward Styles</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/01/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">galinhada do zayn </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Niall James Horan</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23/07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>feijao, arroz e galinhada do zayn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Niall James Horan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23/07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>feijoada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>julia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23/07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>feijoada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>maria</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -1,41 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaojulia\Desktop\MóFome\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4352DC-44B5-49D1-B358-AE4BA72AB684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Frequencia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Dia da Semana</t>
+  </si>
+  <si>
+    <t>Turmas</t>
+  </si>
+  <si>
+    <t>Meninos</t>
+  </si>
+  <si>
+    <t>Meninas</t>
+  </si>
+  <si>
+    <t>28/09</t>
+  </si>
+  <si>
+    <t>feijoada</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>3ADS</t>
+  </si>
+  <si>
+    <t>2BDS</t>
+  </si>
+  <si>
+    <t>1ADS</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,83 +97,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,134 +400,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="32.7109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Almoço</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01/02/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sanduíche de presunto e mozzarela</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Harry Edward Styles</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>12/01/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">galinhada do zayn </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Niall James Horan</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23/07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>feijao, arroz e galinhada do zayn</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Niall James Horan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23/07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>feijoada</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>julia</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>23/07</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>feijoada</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>maria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaojulia\Desktop\MóFome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4352DC-44B5-49D1-B358-AE4BA72AB684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D6696-EAAE-4A9C-83A6-19E7F8AEBC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Data</t>
   </si>
@@ -52,6 +52,9 @@
     <t>julia</t>
   </si>
   <si>
+    <t>Segunda</t>
+  </si>
+  <si>
     <t>3ADS</t>
   </si>
   <si>
@@ -61,7 +64,52 @@
     <t>1ADS</t>
   </si>
   <si>
-    <t>Segunda</t>
+    <t>Escolha Monitor</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>('2BDS', 3)</t>
+  </si>
+  <si>
+    <t>('1ADS', 2)</t>
+  </si>
+  <si>
+    <t>('3ADS', 1)</t>
+  </si>
+  <si>
+    <t>23/09</t>
+  </si>
+  <si>
+    <t>galinhada do zayn</t>
+  </si>
+  <si>
+    <t>Zayn Malik</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>4º - 1ADS</t>
+  </si>
+  <si>
+    <t>3º - 2BDS</t>
+  </si>
+  <si>
+    <t>2º - julia</t>
+  </si>
+  <si>
+    <t>1º - 3ADS</t>
+  </si>
+  <si>
+    <t>Júlia</t>
+  </si>
+  <si>
+    <t>2º - 1ADS</t>
+  </si>
+  <si>
+    <t>1º - 1BDS</t>
   </si>
 </sst>
 </file>
@@ -401,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -409,7 +457,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -446,10 +497,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -469,10 +520,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -492,15 +543,273 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
     </row>
